--- a/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
+++ b/Adult Income with the sample of 1k copy/Performance_metrics/model_perf_metrics_mean_of_iterations__200_300__1_2_3_5.xlsx
@@ -502,16 +502,16 @@
         <v>705</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6161737306355983</v>
+        <v>0.6183597299327739</v>
       </c>
       <c r="H2" t="n">
-        <v>0.01068225</v>
+        <v>0.01599698</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7362687412831243</v>
+        <v>0.7372079846582985</v>
       </c>
       <c r="J2" t="n">
-        <v>0.00656446</v>
+        <v>0.00803858</v>
       </c>
     </row>
     <row r="3">
@@ -536,13 +536,13 @@
         <v>705</v>
       </c>
       <c r="G3" t="n">
-        <v>0.3218390804597701</v>
+        <v>0.6095238095238094</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.5905465481171549</v>
+        <v>0.7311715481171549</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -570,16 +570,16 @@
         <v>905</v>
       </c>
       <c r="G4" t="n">
-        <v>0.08590963392835917</v>
+        <v>0.5264557399436764</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03687802</v>
+        <v>0.01890833</v>
       </c>
       <c r="I4" t="n">
-        <v>0.5151346757322176</v>
+        <v>0.6857108612273363</v>
       </c>
       <c r="J4" t="n">
-        <v>0.009586900000000001</v>
+        <v>0.00963492</v>
       </c>
     </row>
     <row r="5">
@@ -604,16 +604,16 @@
         <v>1105</v>
       </c>
       <c r="G5" t="n">
-        <v>0.06461521454054198</v>
+        <v>0.5260775615098138</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0258779</v>
+        <v>0.01916917</v>
       </c>
       <c r="I5" t="n">
-        <v>0.5108743026499304</v>
+        <v>0.6862600244072525</v>
       </c>
       <c r="J5" t="n">
-        <v>0.00598036</v>
+        <v>0.01107417</v>
       </c>
     </row>
     <row r="6">
@@ -638,16 +638,16 @@
         <v>1305</v>
       </c>
       <c r="G6" t="n">
-        <v>0.07885526124245888</v>
+        <v>0.5379055090169332</v>
       </c>
       <c r="H6" t="n">
-        <v>0.06021463</v>
+        <v>0.02151382</v>
       </c>
       <c r="I6" t="n">
-        <v>0.5148644525801953</v>
+        <v>0.6931986576011159</v>
       </c>
       <c r="J6" t="n">
-        <v>0.01777847</v>
+        <v>0.01255186</v>
       </c>
     </row>
     <row r="7">
@@ -672,16 +672,16 @@
         <v>1705</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06559642148225375</v>
+        <v>0.5595006321895259</v>
       </c>
       <c r="H7" t="n">
-        <v>0.02409528</v>
+        <v>0.02765931</v>
       </c>
       <c r="I7" t="n">
-        <v>0.5093030857740587</v>
+        <v>0.7082766736401676</v>
       </c>
       <c r="J7" t="n">
-        <v>0.00602118</v>
+        <v>0.01674646</v>
       </c>
     </row>
     <row r="8">
@@ -706,16 +706,16 @@
         <v>1005</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08230540403475484</v>
+        <v>0.5264316359852336</v>
       </c>
       <c r="H8" t="n">
-        <v>0.06297693</v>
+        <v>0.01714153</v>
       </c>
       <c r="I8" t="n">
-        <v>0.515766649232915</v>
+        <v>0.6864648709902372</v>
       </c>
       <c r="J8" t="n">
-        <v>0.01939263</v>
+        <v>0.00889857</v>
       </c>
     </row>
     <row r="9">
@@ -740,16 +740,16 @@
         <v>1305</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05677861960914021</v>
+        <v>0.5458668824260866</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03087961</v>
+        <v>0.02550228</v>
       </c>
       <c r="I9" t="n">
-        <v>0.508093619246862</v>
+        <v>0.6981934274755929</v>
       </c>
       <c r="J9" t="n">
-        <v>0.00776918</v>
+        <v>0.01461624</v>
       </c>
     </row>
     <row r="10">
@@ -774,16 +774,16 @@
         <v>1605</v>
       </c>
       <c r="G10" t="n">
-        <v>0.07314908221526011</v>
+        <v>0.5530600739767677</v>
       </c>
       <c r="H10" t="n">
-        <v>0.01331838</v>
+        <v>0.03890753</v>
       </c>
       <c r="I10" t="n">
-        <v>0.5111074790794981</v>
+        <v>0.7035325139470016</v>
       </c>
       <c r="J10" t="n">
-        <v>0.00414263</v>
+        <v>0.02342348</v>
       </c>
     </row>
     <row r="11">
@@ -808,16 +808,16 @@
         <v>2205</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0686966393642064</v>
+        <v>0.5866020503134319</v>
       </c>
       <c r="H11" t="n">
-        <v>0.02857581</v>
+        <v>0.02440129</v>
       </c>
       <c r="I11" t="n">
-        <v>0.5097868723849374</v>
+        <v>0.7256973500697351</v>
       </c>
       <c r="J11" t="n">
-        <v>0.00664031</v>
+        <v>0.01540481</v>
       </c>
     </row>
   </sheetData>
